--- a/files/ConcileTimeROI.xlsx
+++ b/files/ConcileTimeROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i830671/git/conciletime/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC73702-B307-B944-84D2-85D9E415B83A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911987E-0C09-D54A-9607-9F1B23460811}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{05C21B70-CAF6-6F43-AC10-0C6D232662D0}"/>
+    <workbookView xWindow="3560" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{05C21B70-CAF6-6F43-AC10-0C6D232662D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Start Date</t>
   </si>
@@ -84,7 +84,10 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Total Monthly Expense</t>
+    <t>https://smallbiztrends.com/2008/11/the-size-of-angel-investments.html</t>
+  </si>
+  <si>
+    <t>Total Monthly</t>
   </si>
 </sst>
 </file>
@@ -97,7 +100,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +112,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,10 +160,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -171,8 +183,10 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -617,13 +631,13 @@
                 <c:formatCode>"$"#,##0.00;[Red]"$"#,##0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>998.98583333333329</c:v>
+                  <c:v>9998.9858333333341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>978.30583333333334</c:v>
+                  <c:v>9978.3058333333338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>776.88333333333333</c:v>
+                  <c:v>9776.8833333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +1740,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1778,7 +1792,7 @@
       </c>
       <c r="F2" s="2">
         <f>(B21+E2)</f>
-        <v>998.98583333333329</v>
+        <v>9998.9858333333341</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1803,7 +1817,7 @@
       </c>
       <c r="F3" s="2">
         <f>(F2+E3)</f>
-        <v>978.30583333333334</v>
+        <v>9978.3058333333338</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1828,7 +1842,7 @@
       </c>
       <c r="F4" s="2">
         <f>(F3+E4)</f>
-        <v>776.88333333333333</v>
+        <v>9776.8833333333332</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1991,7 +2005,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="2">
-        <v>1000</v>
+        <v>10000</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2145,7 +2162,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2">
         <f>SUM(B23:B32)</f>
@@ -2161,7 +2178,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{2D226A04-E9FB-7547-B750-A2814795FBF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/files/ConcileTimeROI.xlsx
+++ b/files/ConcileTimeROI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i830671/git/conciletime/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911987E-0C09-D54A-9607-9F1B23460811}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1220220-5EF3-5540-A51E-F926DE9D893D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{05C21B70-CAF6-6F43-AC10-0C6D232662D0}"/>
   </bookViews>
@@ -1740,7 +1740,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/files/ConcileTimeROI.xlsx
+++ b/files/ConcileTimeROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i830671/git/conciletime/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1220220-5EF3-5540-A51E-F926DE9D893D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3847440D-D5B0-8249-919E-4D5DA7295501}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{05C21B70-CAF6-6F43-AC10-0C6D232662D0}"/>
+    <workbookView xWindow="2720" yWindow="-18000" windowWidth="27240" windowHeight="16440" xr2:uid="{05C21B70-CAF6-6F43-AC10-0C6D232662D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Start Date</t>
   </si>
@@ -88,17 +88,41 @@
   </si>
   <si>
     <t>Total Monthly</t>
+  </si>
+  <si>
+    <t>Hosting Item</t>
+  </si>
+  <si>
+    <t>See the Partner Internal Pricing Guide for specific capabilities of various plans https://partneredge.sap.com/en/library/assets/partnership/sales/order_license/pl_pl_part_price_list.html</t>
+  </si>
+  <si>
+    <t>8006193 HANA</t>
+  </si>
+  <si>
+    <t>8005565 Starter</t>
+  </si>
+  <si>
+    <t>Total Hosting</t>
+  </si>
+  <si>
+    <t>Convert to $</t>
+  </si>
+  <si>
+    <t>Total $</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="174" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -164,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -184,6 +208,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,7 +535,7 @@
                   <c:v>25.680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>211.42249999999999</c:v>
+                  <c:v>473.80250000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,7 +664,7 @@
                   <c:v>9978.3058333333338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9776.8833333333332</c:v>
+                  <c:v>9514.503333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1737,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E39CD06-F746-C84A-A421-7270833F093A}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1834,15 +1861,15 @@
       </c>
       <c r="D4" s="2">
         <f>D33</f>
-        <v>211.42249999999999</v>
+        <v>473.80250000000001</v>
       </c>
       <c r="E4" s="2">
         <f>(C4-D4)</f>
-        <v>-201.42249999999999</v>
+        <v>-463.80250000000001</v>
       </c>
       <c r="F4" s="2">
         <f>(F3+E4)</f>
-        <v>9776.8833333333332</v>
+        <v>9514.503333333334</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2115,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>0</v>
+        <v>262.38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2174,7 +2201,75 @@
       </c>
       <c r="D33" s="2">
         <f>SUM(D23:D32)</f>
-        <v>211.42249999999999</v>
+        <v>473.80250000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="13">
+        <v>89</v>
+      </c>
+      <c r="C36" s="14">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <f>(B36*C36)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="13">
+        <v>72.5</v>
+      </c>
+      <c r="C37" s="14">
+        <v>2</v>
+      </c>
+      <c r="D37" s="13">
+        <f>(B37*C37)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="13">
+        <f>SUM(D36:D38)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>1.1213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="15">
+        <f>(D39*D40)</f>
+        <v>262.38419999999996</v>
       </c>
     </row>
   </sheetData>

--- a/files/ConcileTimeROI.xlsx
+++ b/files/ConcileTimeROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i830671/git/conciletime/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3847440D-D5B0-8249-919E-4D5DA7295501}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2DF08E-EA5C-1B4C-B375-1B418DE03F58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="-18000" windowWidth="27240" windowHeight="16440" xr2:uid="{05C21B70-CAF6-6F43-AC10-0C6D232662D0}"/>
+    <workbookView xWindow="3160" yWindow="4020" windowWidth="27240" windowHeight="16440" xr2:uid="{05C21B70-CAF6-6F43-AC10-0C6D232662D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1766,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E39CD06-F746-C84A-A421-7270833F093A}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
